--- a/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
+++ b/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
@@ -24,13 +24,13 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>出生日期</t>
+    <t>出生日期(格式:例如1999/06/06)</t>
   </si>
   <si>
     <t>性别</t>
   </si>
   <si>
-    <t>身份证号</t>
+    <t>身份证号(18位)</t>
   </si>
   <si>
     <t>婚否</t>
@@ -52,11 +52,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +68,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -75,22 +84,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,41 +151,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,39 +175,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,19 +221,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,31 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,25 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,96 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,15 +441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,30 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,6 +483,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,141 +532,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,50 +1041,53 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="4" width="9.375"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="9" style="2"/>
     <col min="7" max="7" width="12.625"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" ht="73" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="1"/>
+      <c r="E2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
+++ b/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
@@ -52,12 +52,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,7 +69,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,9 +112,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,67 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -175,6 +165,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -182,31 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,19 +220,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,61 +364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,97 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +414,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,15 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -465,6 +449,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,9 +494,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,141 +531,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -677,9 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1041,7 +1034,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1049,45 +1042,45 @@
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="1"/>
     <col min="7" max="7" width="12.625"/>
-    <col min="9" max="9" width="9" style="3"/>
+    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="73" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="7"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
+++ b/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\hospitalmanager\src\main\resources\static\excelmodel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>年龄</t>
+  </si>
+  <si>
+    <t>出生日期(格式:例如1999-06-06)</t>
   </si>
   <si>
     <t>性别</t>
@@ -44,21 +42,20 @@
     <t>联系地址</t>
   </si>
   <si>
-    <t>姓名拼音简码</t>
-  </si>
-  <si>
     <t>人员类别(公司)</t>
-  </si>
-  <si>
-    <t>出生日期(格式:例如1999-06-06)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,21 +64,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -89,21 +410,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,17 +678,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,94 +1019,96 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="7" max="7" width="12.625"/>
-    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="72.95" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E2" s="5"/>
+    <row r="2" spans="5:5">
+      <c r="E2" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
+++ b/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
@@ -42,7 +42,7 @@
     <t>联系地址</t>
   </si>
   <si>
-    <t>人员类别(公司)</t>
+    <t>所属部门</t>
   </si>
 </sst>
 </file>
@@ -64,9 +64,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,8 +78,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,15 +123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,54 +139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,19 +155,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,25 +217,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,6 +367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,145 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,9 +413,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,41 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
+++ b/src/main/resources/static/excelmodel/PhysicalPersonInfo.xlsx
@@ -16,24 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>出生日期(格式:例如1999-06-06)</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
     <t>身份证号(18位)</t>
-  </si>
-  <si>
-    <t>婚否</t>
   </si>
   <si>
     <t>联系电话</t>
@@ -42,7 +30,7 @@
     <t>联系地址</t>
   </si>
   <si>
-    <t>所属部门</t>
+    <t>婚否</t>
   </si>
 </sst>
 </file>
@@ -50,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +69,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,15 +90,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,7 +114,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,17 +151,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,59 +195,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,24 +410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -451,15 +421,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +440,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,6 +460,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,134 +519,134 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +661,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,52 +1010,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="7" max="7" width="12.625"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72.95" customHeight="1" spans="1:9">
+    <row r="1" ht="72.95" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="4"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
